--- a/総合テスト/3. 注文機能/ST-O-008_結果.xlsx
+++ b/総合テスト/3. 注文機能/ST-O-008_結果.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://avantg-my.sharepoint.com/personal/aoi_yaegashi_avantcorp_com/Documents/ドキュメント/研修/IT研修/システム開発模擬演習/総合テスト/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daisuke.shimada\Documents\teamF\総合テスト\3. 注文機能\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="11_AD4D066CA252ABDACC10480FD913EE5A73EEDF63" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{689EC883-8414-4F89-8929-D78EDE7FEA1F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7B701E-D50D-420B-A0A5-EE2D1CB4B7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="380" windowWidth="10040" windowHeight="10830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="実施前" sheetId="1" r:id="rId1"/>
@@ -170,8 +170,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1349917" y="12333404"/>
-          <a:ext cx="17454306" cy="9389223"/>
+          <a:off x="1331017" y="11999497"/>
+          <a:ext cx="17208601" cy="9137218"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -214,8 +214,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1347438" y="727928"/>
-          <a:ext cx="17442709" cy="9354856"/>
+          <a:off x="1328538" y="709028"/>
+          <a:ext cx="17197004" cy="9102851"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -224,6 +224,123 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="12116423" cy="3854648"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0FD710B-4805-4ADA-846D-80808D8FB2F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1313051" y="22149661"/>
+          <a:ext cx="12116423" cy="3854648"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11983066" cy="3264068"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF46FA49-DA1D-4703-862E-4A725AE08D1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1313051" y="26217966"/>
+          <a:ext cx="11983066" cy="3264068"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>38746</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="12141824" cy="5131064"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B16CB91F-A5D4-43F7-AC2B-F359A1DA6D87}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1313051" y="29646966"/>
+          <a:ext cx="12141824" cy="5131064"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -717,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:C53"/>
   <sheetViews>
-    <sheetView topLeftCell="S65" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="59" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B113" sqref="B113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -744,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39A19B02-ACE7-44EF-B9B9-B333F2879195}">
   <dimension ref="C2:C188"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="E185" sqref="E185"/>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
